--- a/kbs/kb_core_empty.xlsx
+++ b/kbs/kb_core_empty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-45" windowWidth="28455" windowHeight="6240" tabRatio="1000" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="15" yWindow="-45" windowWidth="28455" windowHeight="6240" tabRatio="1000" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Proteins!$A$1:$Q$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Reactions!$A$1:$Q$221</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">RNAs!$A$1:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Transcription units'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="10">Complexes!$A$1:$J$221</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="6">Genes!$A$1:$L$3</definedName>
@@ -46,7 +46,7 @@
     <definedName name="_FilterDatabase_0" localSheetId="9">Proteins!$A$1:$Q$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="15">Reactions!$A$1:$Q$221</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="8">RNAs!$A$1:$H$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="5">'Transcription units'!$A$1:$L$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="10">Complexes!$A$1:$J$218</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="6">Genes!$A$1:$L$3</definedName>
@@ -54,14 +54,14 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="9">Proteins!$A$1:$Q$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Reactions!$A$1:$Q$218</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="8">RNAs!$A$1:$H$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Transcription units'!$A$1:$L$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Complexes!$A$1:$J$221</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="6">Genes!$P$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Reactions!$A$1:$Q$221</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="8">RNAs!$A$1:$H$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Transcription units'!$A$1:$L$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">Genes!$A$1:$L$3</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="121">
   <si>
     <t>Id</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>Synonyms</t>
-  </si>
-  <si>
-    <t>Chromosome</t>
   </si>
   <si>
     <t>Coordinate</t>
@@ -1313,31 +1310,31 @@
         <v>36</v>
       </c>
       <c r="F1" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="H1" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="I1" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="66" t="s">
-        <v>77</v>
-      </c>
       <c r="J1" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="66" t="s">
-        <v>94</v>
-      </c>
       <c r="L1" s="66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N1" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O1" s="74" t="s">
         <v>51</v>
@@ -7563,16 +7560,16 @@
         <v>19</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="62" t="s">
-        <v>87</v>
-      </c>
       <c r="I1" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>51</v>
@@ -7762,22 +7759,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G1" s="65" t="s">
         <v>46</v>
       </c>
       <c r="H1" s="62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I1" s="65" t="s">
         <v>51</v>
@@ -7995,16 +7992,16 @@
         <v>47</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>85</v>
-      </c>
       <c r="I1" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>46</v>
@@ -8060,7 +8057,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" s="67" t="s">
         <v>47</v>
@@ -8069,22 +8066,22 @@
         <v>48</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I1" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="66" t="s">
-        <v>79</v>
-      </c>
       <c r="M1" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>51</v>
@@ -8204,7 +8201,7 @@
         <v>46</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>51</v>
@@ -8452,28 +8449,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>106</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>107</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>46</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J1" s="34" t="s">
         <v>51</v>
@@ -8563,34 +8560,34 @@
         <v>37</v>
       </c>
       <c r="B1" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="63" t="s">
-        <v>105</v>
-      </c>
       <c r="D1" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>103</v>
-      </c>
       <c r="G1" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="I1" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="J1" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="K1" s="63" t="s">
         <v>100</v>
-      </c>
-      <c r="K1" s="63" t="s">
-        <v>101</v>
       </c>
       <c r="L1" s="63" t="s">
         <v>51</v>
@@ -8628,10 +8625,10 @@
         <v>37</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>9</v>
@@ -8639,13 +8636,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -8687,25 +8684,25 @@
         <v>32</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="F1" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="58" t="s">
+      <c r="H1" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="I1" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="J1" s="30" t="s">
         <v>115</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>116</v>
       </c>
       <c r="K1" s="34" t="s">
         <v>51</v>
@@ -8848,7 +8845,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -8857,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -11197,8 +11194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11223,25 +11220,25 @@
         <v>32</v>
       </c>
       <c r="D1" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="F1" s="63" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>62</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="63" t="s">
-        <v>121</v>
-      </c>
       <c r="J1" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="63" t="s">
         <v>51</v>
@@ -11311,28 +11308,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="24" customWidth="1"/>
-    <col min="5" max="8" width="20.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="22" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="17" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="24" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="4"/>
-    <col min="15" max="1022" width="9.140625" style="9"/>
-    <col min="1023" max="1025" width="8.5703125" style="22"/>
-    <col min="1026" max="16384" width="9" style="22"/>
+    <col min="1" max="4" width="20.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="24" customWidth="1"/>
+    <col min="6" max="9" width="20.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="17" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="24" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="4"/>
+    <col min="16" max="1023" width="9.140625" style="9"/>
+    <col min="1024" max="1026" width="8.5703125" style="22"/>
+    <col min="1027" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13 1025:1025" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -11340,42 +11337,45 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="K1" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="L1" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="82"/>
-    </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="D2" s="4"/>
+      <c r="AMK1" s="82"/>
+    </row>
+    <row r="2" spans="1:13 1025:1025" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:K1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -11389,11 +11389,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11432,10 +11432,10 @@
         <v>34</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="80" t="s">
         <v>32</v>
@@ -11444,7 +11444,7 @@
         <v>25</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J1" s="80" t="s">
         <v>29</v>
@@ -11453,10 +11453,10 @@
         <v>30</v>
       </c>
       <c r="L1" s="80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M1" s="80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N1" s="30" t="s">
         <v>51</v>
@@ -11559,10 +11559,10 @@
         <v>32</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>51</v>
@@ -11711,10 +11711,10 @@
         <v>31</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>51</v>

--- a/kbs/kb_core_empty.xlsx
+++ b/kbs/kb_core_empty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-45" windowWidth="28455" windowHeight="6240" tabRatio="1000" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="15" yWindow="-45" windowWidth="28455" windowHeight="6240" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>mycoplasma_pneumoniae_cell</t>
-  </si>
-  <si>
     <t>Mycoplasma pneumoniae cell</t>
   </si>
   <si>
@@ -453,6 +450,9 @@
   </si>
   <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>cell</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,46 +1301,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="66" t="s">
-        <v>36</v>
-      </c>
       <c r="F1" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="H1" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="I1" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="66" t="s">
-        <v>76</v>
-      </c>
       <c r="J1" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="66" t="s">
-        <v>93</v>
-      </c>
       <c r="L1" s="66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N1" s="66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O1" s="74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P1" s="74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="66" t="s">
         <v>9</v>
@@ -3612,40 +3612,40 @@
   <sheetData>
     <row r="1" spans="1:1024" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="E1" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="67" t="s">
+      <c r="G1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="H1" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="67" t="s">
-        <v>42</v>
-      </c>
       <c r="I1" s="66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" s="67" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="74" t="s">
         <v>50</v>
-      </c>
-      <c r="L1" s="74" t="s">
-        <v>51</v>
       </c>
       <c r="AMI1" s="75"/>
       <c r="AMJ1" s="75"/>
@@ -7545,37 +7545,37 @@
   <sheetData>
     <row r="1" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="62" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" s="62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="62" t="s">
-        <v>86</v>
-      </c>
       <c r="I1" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="62" t="s">
         <v>9</v>
@@ -7753,34 +7753,34 @@
   <sheetData>
     <row r="1" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1" s="65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K1" s="65" t="s">
         <v>9</v>
@@ -7936,19 +7936,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="70" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>46</v>
       </c>
       <c r="E1" s="70" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="72" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -7983,34 +7983,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>84</v>
-      </c>
       <c r="I1" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M1" s="30" t="s">
         <v>9</v>
@@ -8051,43 +8051,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="66" t="s">
-        <v>48</v>
-      </c>
       <c r="H1" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I1" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="66" t="s">
-        <v>78</v>
-      </c>
       <c r="M1" s="66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N1" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O1" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P1" s="67" t="s">
         <v>9</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>46</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="65" t="s">
         <v>50</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -8192,22 +8192,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="64" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="64" t="s">
-        <v>50</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>9</v>
@@ -8449,31 +8449,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>106</v>
-      </c>
       <c r="H1" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="30" t="s">
         <v>9</v>
@@ -8488,11 +8488,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8507,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8515,12 +8515,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8557,43 +8557,43 @@
   <sheetData>
     <row r="1" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="63" t="s">
-        <v>104</v>
-      </c>
       <c r="D1" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>102</v>
-      </c>
       <c r="G1" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="I1" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="J1" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="K1" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="63" t="s">
-        <v>100</v>
-      </c>
       <c r="L1" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N1" s="63" t="s">
         <v>9</v>
@@ -8622,13 +8622,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>9</v>
@@ -8636,13 +8636,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -8681,31 +8681,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="F1" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="58" t="s">
+      <c r="H1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="I1" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="J1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="30" t="s">
-        <v>115</v>
-      </c>
       <c r="K1" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" s="60" t="s">
         <v>9</v>
@@ -8743,13 +8743,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>9</v>
@@ -8759,26 +8759,26 @@
     </row>
     <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -8816,22 +8816,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="66" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="66" t="s">
         <v>9</v>
@@ -8839,13 +8839,13 @@
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -11217,34 +11217,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="G1" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="63" t="s">
-        <v>62</v>
-      </c>
       <c r="K1" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M1" s="63" t="s">
         <v>9</v>
@@ -11337,34 +11337,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="G1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="30" t="s">
-        <v>31</v>
-      </c>
       <c r="K1" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" s="81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M1" s="30" t="s">
         <v>9</v>
@@ -11389,7 +11389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -11426,43 +11426,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="80" t="s">
-        <v>64</v>
-      </c>
       <c r="M1" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O1" s="80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P1" s="80" t="s">
         <v>9</v>
@@ -11553,22 +11553,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="62" t="s">
         <v>9</v>
@@ -11699,28 +11699,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K1" s="30" t="s">
         <v>9</v>

--- a/kbs/kb_core_empty.xlsx
+++ b/kbs/kb_core_empty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szbaz\Desktop\vm share\wc\wc_kb\kbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9158D3-2224-4579-A2C8-7A7A7B4C0E01}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7A94F6-A471-4623-9FBD-377231FEB328}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -7512,7 +7512,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11224,7 +11224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMN1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -11322,10 +11322,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AMI13"/>
+  <dimension ref="A1:ALS1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11336,9 +11336,9 @@
     <col min="5" max="6" width="20.6640625" style="16" customWidth="1"/>
     <col min="7" max="8" width="20.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" style="1" customWidth="1"/>
-    <col min="10" max="1023" width="9.109375" style="2"/>
-    <col min="1024" max="1025" width="9.109375" style="31"/>
-    <col min="1026" max="16384" width="9" style="31"/>
+    <col min="10" max="1007" width="9.109375" style="2"/>
+    <col min="1008" max="1009" width="9.109375" style="31"/>
+    <col min="1010" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="68" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -11369,78 +11369,6 @@
       <c r="I1" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/kbs/kb_core_empty.xlsx
+++ b/kbs/kb_core_empty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szbaz\Desktop\vm share\wc\wc_kb\kbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7A94F6-A471-4623-9FBD-377231FEB328}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35143A87-6622-4593-B4A9-8DEEE02A9ABD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" firstSheet="7" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="119">
   <si>
     <t>Id</t>
   </si>
@@ -417,12 +417,6 @@
   </si>
   <si>
     <t>KEGG:T00006</t>
-  </si>
-  <si>
-    <t>T00006</t>
-  </si>
-  <si>
-    <t>KEGG</t>
   </si>
   <si>
     <t>Title</t>
@@ -8287,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>64</v>
@@ -8345,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8444,10 +8438,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8470,17 +8464,6 @@
       </c>
       <c r="D1" s="28" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -8521,25 +8504,25 @@
         <v>31</v>
       </c>
       <c r="D1" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="J1" s="28" t="s">
         <v>112</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>114</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>50</v>
@@ -8682,7 +8665,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -11068,10 +11051,10 @@
         <v>43</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J1" s="51" t="s">
         <v>61</v>
@@ -11324,7 +11307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:ALS1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:Y1048576"/>
     </sheetView>
   </sheetViews>
